--- a/Consultatie/Consultatie NEN3610LD-email comment added.xlsx
+++ b/Consultatie/Consultatie NEN3610LD-email comment added.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\NEN3610-Linkeddata\Consultatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30502DC-4CA3-4F7F-8B8D-0801D52C4ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E72CC-65F1-45D0-8704-837CB1ACCADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,8 +1128,8 @@
   <dimension ref="A1:AP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
